--- a/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
+++ b/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGulnim-Git\CasualGame\CasualGame\Assets\CasualGame\Tables\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1798E8EB-5798-462D-A1F5-00DB0CEBC530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3040461-258E-4DEE-A6C6-46AB18A9C11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32715" yWindow="2985" windowWidth="28800" windowHeight="15435" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,66 @@
   </si>
   <si>
     <t>Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-켜짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켜짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5CC8B-F0F7-467D-A165-2E1130D3C71C}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,6 +656,61 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
+++ b/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGulnim-Git\CasualGame\CasualGame\Assets\CasualGame\Tables\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3040461-258E-4DEE-A6C6-46AB18A9C11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6867B6A-2CDC-4473-AB60-718D8EA6AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32715" yWindow="2985" windowWidth="28800" windowHeight="15435" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="AllLanguage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-전체음량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 음량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5CC8B-F0F7-467D-A165-2E1130D3C71C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,45 +681,56 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
     </row>

--- a/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
+++ b/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGulnim-Git\CasualGame\CasualGame\Assets\CasualGame\Tables\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6867B6A-2CDC-4473-AB60-718D8EA6AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{135A1EE2-3EFC-4E63-A1DC-545B7CEEFA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="AllLanguage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Guest Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>txt-구글로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Guest Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>txt-설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +146,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>txt-전체음량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 음량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>txt-배경음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,18 +186,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>켜짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>txt-꺼짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>켜짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꺼짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,23 +206,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-전체음량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 음량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>txt-게임환경</t>
+  </si>
+  <si>
+    <t>게임 환경</t>
+  </si>
+  <si>
+    <t>Game Setting</t>
+  </si>
+  <si>
+    <t>txt-자동</t>
+  </si>
+  <si>
+    <t>자동</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>txt-프레임</t>
+  </si>
+  <si>
+    <t>프레임</t>
+  </si>
+  <si>
+    <t>Target Frame</t>
+  </si>
+  <si>
+    <t>txt-그래픽</t>
+  </si>
+  <si>
+    <t>그래픽</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>txt-낮음</t>
+  </si>
+  <si>
+    <t>낮음</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>txt-중간</t>
+  </si>
+  <si>
+    <t>중간</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>txt-높음</t>
+  </si>
+  <si>
+    <t>높음</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,20 +630,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5CC8B-F0F7-467D-A165-2E1130D3C71C}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -613,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -621,21 +684,21 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -646,7 +709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -657,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -668,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -679,59 +742,136 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
+++ b/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGulnim-Git\CasualGame\CasualGame\Assets\CasualGame\Tables\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{135A1EE2-3EFC-4E63-A1DC-545B7CEEFA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870F76B-830C-488A-8845-DF57CA07C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="AllLanguage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,13 +267,53 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>txt-fps30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-fps60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-품질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,20 +670,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5CC8B-F0F7-467D-A165-2E1130D3C71C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -665,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -676,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -687,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -698,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -709,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -720,7 +760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -731,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -742,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -753,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -764,7 +804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -775,7 +815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -786,7 +826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1">
+    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -797,7 +837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -808,7 +848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -819,7 +859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -830,7 +870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -841,7 +881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -852,7 +892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -863,7 +903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -872,6 +912,50 @@
       </c>
       <c r="C21" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
+++ b/CasualGame/Assets/CasualGame/Tables/Localization/LocalizationTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGulnim-Git\CasualGame\CasualGame\Assets\CasualGame\Tables\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870F76B-830C-488A-8845-DF57CA07C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E679F5A-D44F-4857-B53C-7199E37BF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
+    <workbookView xWindow="-34800" yWindow="720" windowWidth="28800" windowHeight="15435" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="AllLanguage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>취소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-게스트로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게스트 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-구글로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구글 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-볼륨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>볼륨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,22 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-전체음량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 음량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt-배경음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배경음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-효과음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>효과음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-켜짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>켜짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-꺼짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꺼짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,63 +146,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-게임환경</t>
-  </si>
-  <si>
     <t>게임 환경</t>
   </si>
   <si>
     <t>Game Setting</t>
   </si>
   <si>
-    <t>txt-자동</t>
-  </si>
-  <si>
     <t>자동</t>
   </si>
   <si>
     <t>Auto</t>
   </si>
   <si>
-    <t>txt-프레임</t>
-  </si>
-  <si>
     <t>프레임</t>
   </si>
   <si>
     <t>Target Frame</t>
   </si>
   <si>
-    <t>txt-그래픽</t>
-  </si>
-  <si>
     <t>그래픽</t>
   </si>
   <si>
     <t>Graphics</t>
   </si>
   <si>
-    <t>txt-낮음</t>
-  </si>
-  <si>
     <t>낮음</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>txt-중간</t>
-  </si>
-  <si>
     <t>중간</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>txt-높음</t>
-  </si>
-  <si>
     <t>높음</t>
   </si>
   <si>
@@ -289,23 +208,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-사운드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt-품질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>품질</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-guestLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-googleLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-sfx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-gameSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-targerFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-graphics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-exitGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-exitGameInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 게임을&lt;br&gt;종료하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you really&lt;br&gt;want to exit?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt-no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5CC8B-F0F7-467D-A165-2E1130D3C71C}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,266 +739,299 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
